--- a/biology/Histoire de la zoologie et de la botanique/William_Davisson/William_Davisson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Davisson/William_Davisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Davisson (autres formes Davidson, Davison, Davissone, d'Avissone), né en 1593 en Écosse et mort en 1669, est un médecin, chimiste et botaniste français d'origine écossaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'une famille ruinée de la vieille aristocratie britannique, il sort diplômé de l'Université d'Aberdeen à l'âge de 21 ans. Davisson quitte l'Écosse pour la France vers 1614 et obtient son titre de docteur en médecin de la Faculté de Montpellier. Il se lia d'amitié avec Jean-Baptiste Morin de Villefranche, et devient en 1619 le médecin de Claude Dormy, évêque de Boulogne, jusqu'à son décès survenu en 1626.
 Il est ensuite à Paris médecin de la communauté aristocratique écossaise et obtient du roi Charles Ier, l'attestation de sa noble origine. Sa réputation grandissante en Écosse lui permit de devenir le médecin de John Scudamore, ambassadeur d'Angleterre en France. Le 25 mars 1636, Charles Ier lui signifie officiellement sa gracieuse faveur.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Philosophia pyrotechnica seu cursus chymiatricus, 1635
 Elémens de la philosophie de l'art de feu, 1644
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dictionary of National Biography, 1885-1900, Volume 14 (Wikisource)
 Fernande Sadler, Les Davison, seigneur de Nonville-en-Gatinais, 1905 (Gallica)
